--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65268BDF-5802-FA43-A551-B67748A3EB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AFEBF4-2A8E-E242-AE3D-B5B374BE408E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="4220" windowWidth="28520" windowHeight="16700" tabRatio="916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29220" yWindow="1940" windowWidth="28520" windowHeight="16700" tabRatio="916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_Toc442359491" localSheetId="1">'Operation list'!#REF!</definedName>
     <definedName name="_Toc442359492" localSheetId="1">'Operation list'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="111">
   <si>
     <t>Author:</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>Loans</t>
-  </si>
-  <si>
-    <t>Request to order new check</t>
-  </si>
-  <si>
-    <t>Request to order new withdrawal check</t>
   </si>
   <si>
     <t>Request to stop check payment</t>
@@ -985,56 +979,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,18 +1049,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1481,51 +1475,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="76">
         <v>42895</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1541,228 +1535,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="67"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1775,238 +1769,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="66"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="68"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="74"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="74"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="C32" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="68"/>
+      <c r="I32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2017,54 +2059,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2075,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -2105,13 +2099,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="83" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="80" t="s">
@@ -2123,63 +2117,63 @@
       <c r="F1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="82" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -2207,12 +2201,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2264,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>71</v>
@@ -2272,6 +2266,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2280,16 +2284,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2298,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:F22"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2350,34 +2344,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2405,10 +2399,10 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -2419,22 +2413,20 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -2445,7 +2437,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -2455,10 +2449,10 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -2481,10 +2475,10 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -2505,76 +2499,74 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -2594,11 +2586,11 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>82</v>
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -2614,15 +2606,15 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -2641,22 +2633,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -2665,36 +2647,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -2703,12 +2685,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -2717,22 +2709,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -2741,221 +2723,247 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="39">
+        <v>832</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
       <c r="A21" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
+        <v>106</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="39">
-        <v>831</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>313</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>321</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>318</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="29">
-        <v>313</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="A27" s="54"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="29">
-        <v>321</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
+        <v>250</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="54"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="29">
+        <v>372</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -2963,12 +2971,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -2979,7 +2987,9 @@
       <c r="E31" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -2988,24 +2998,12 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>371</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="54"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -3013,75 +3011,77 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="29">
-        <v>372</v>
-      </c>
-      <c r="B33" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="C33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="1:12" ht="16">
       <c r="A34" s="29">
-        <v>373</v>
-      </c>
-      <c r="B34" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
+      <c r="C34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="54"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="B35" s="29"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>601</v>
+        <v>813</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>95</v>
@@ -3098,164 +3098,96 @@
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>600</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="37" spans="1:12">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+    <row r="38" spans="1:12" ht="16">
+      <c r="A38" s="58">
+        <v>222</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>813</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>222</v>
-      </c>
-      <c r="B41" s="52" t="s">
+      <c r="A39" s="58">
+        <v>675</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="39">
+        <v>767</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="58">
-        <v>675</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="39">
-        <v>767</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="C40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3272,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3296,7 +3228,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -3324,34 +3256,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3379,10 +3311,10 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -3393,22 +3325,20 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -3419,7 +3349,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -3429,10 +3361,10 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -3455,10 +3387,10 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -3479,76 +3411,74 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -3568,11 +3498,11 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>82</v>
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -3588,15 +3518,15 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -3615,22 +3545,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -3639,36 +3559,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -3677,12 +3597,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -3691,22 +3621,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -3715,221 +3635,247 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="39">
+        <v>832</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
       <c r="A21" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
+        <v>106</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="39">
-        <v>831</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>313</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>321</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="29">
+        <v>318</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="29">
-        <v>313</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="54"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="29">
+        <v>372</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -3937,12 +3883,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="29">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -3953,7 +3899,9 @@
       <c r="E31" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -3962,24 +3910,12 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>371</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="54"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -3987,75 +3923,77 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="16">
       <c r="A33" s="29">
-        <v>372</v>
-      </c>
-      <c r="B33" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="C33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="1:12" ht="16">
       <c r="A34" s="29">
-        <v>373</v>
-      </c>
-      <c r="B34" s="59" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
+      <c r="C34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="54"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>601</v>
+        <v>813</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>95</v>
@@ -4072,164 +4010,96 @@
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>600</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="37" spans="1:12">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+    <row r="38" spans="1:12" ht="16">
+      <c r="A38" s="58">
+        <v>222</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>813</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>222</v>
-      </c>
-      <c r="B41" s="52" t="s">
+      <c r="A39" s="58">
+        <v>675</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="39">
+        <v>767</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="58">
-        <v>675</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="39">
-        <v>767</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="C40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4270,7 +4140,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -4298,34 +4168,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4498,7 +4368,7 @@
         <v>601</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>70</v>
@@ -4524,7 +4394,7 @@
         <v>600</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>70</v>
@@ -4566,7 +4436,7 @@
         <v>813</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>70</v>
@@ -4624,7 +4494,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -4652,34 +4522,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4852,7 +4722,7 @@
         <v>601</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>70</v>
@@ -4878,7 +4748,7 @@
         <v>600</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>70</v>
@@ -4920,7 +4790,7 @@
         <v>813</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>70</v>
@@ -4944,10 +4814,10 @@
         <v>814</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>70</v>
@@ -5004,7 +4874,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5032,34 +4902,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5232,7 +5102,7 @@
         <v>601</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>70</v>
@@ -5258,7 +5128,7 @@
         <v>600</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>70</v>
@@ -5300,7 +5170,7 @@
         <v>813</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>70</v>
@@ -5358,7 +5228,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5386,34 +5256,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5586,7 +5456,7 @@
         <v>601</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>70</v>
@@ -5612,7 +5482,7 @@
         <v>600</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>70</v>
@@ -5650,7 +5520,7 @@
         <v>813</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>70</v>
@@ -5684,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E22"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5708,7 +5578,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5736,34 +5606,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5791,10 +5661,10 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -5805,22 +5675,20 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -5831,7 +5699,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -5841,10 +5711,10 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -5867,10 +5737,10 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -5891,76 +5761,74 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -5980,11 +5848,11 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>82</v>
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -6000,15 +5868,15 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -6027,22 +5895,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -6051,36 +5909,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -6089,12 +5947,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -6103,22 +5971,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -6127,162 +5985,184 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="39">
-        <v>830</v>
-      </c>
-      <c r="B21" s="52" t="s">
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="39">
+        <v>832</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="39">
-        <v>831</v>
-      </c>
-      <c r="B22" s="44" t="s">
+    <row r="22" spans="1:12" ht="14" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>313</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>318</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="54"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="29">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="54"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="29">
+        <v>372</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -6291,12 +6171,12 @@
       <c r="K28" s="36"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -6316,21 +6196,11 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="29">
-        <v>371</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A30" s="54"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -6339,71 +6209,73 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="29">
-        <v>372</v>
-      </c>
-      <c r="B31" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="C31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
       <c r="A32" s="29">
-        <v>373</v>
-      </c>
-      <c r="B32" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="28"/>
+      <c r="C32" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="54"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="B33" s="29"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="1:12" ht="16">
       <c r="A34" s="29">
-        <v>601</v>
+        <v>813</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>95</v>
@@ -6420,16 +6292,14 @@
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
-      <c r="I34" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I34" s="57"/>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="16">
       <c r="A35" s="29">
-        <v>600</v>
+        <v>814</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>96</v>
@@ -6452,80 +6322,18 @@
       <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="54"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="29"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>813</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>814</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AFEBF4-2A8E-E242-AE3D-B5B374BE408E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD35EA-322B-124C-B21C-FE4A103A6752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="1940" windowWidth="28520" windowHeight="16700" tabRatio="916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="IM V non acc sensitive - discl" sheetId="7" r:id="rId7"/>
     <sheet name="IM VI nonaccsensit passiv corpo" sheetId="8" r:id="rId8"/>
     <sheet name="IM VII full rights passive" sheetId="9" r:id="rId9"/>
+    <sheet name="IM Mask VIII RO rights" sheetId="10" r:id="rId10"/>
+    <sheet name="IM IX" sheetId="11" r:id="rId11"/>
+    <sheet name="IM X" sheetId="12" r:id="rId12"/>
+    <sheet name="IM XI" sheetId="13" r:id="rId13"/>
+    <sheet name="IM XII" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Operation list'!$A$1:$W$2</definedName>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="128">
   <si>
     <t>Author:</t>
   </si>
@@ -380,13 +385,64 @@
   </si>
   <si>
     <t>Set off/on foreign payments for card</t>
+  </si>
+  <si>
+    <t>Init Mask VIII RO rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask IX in OLB created user non-sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask X in OLB created user – passive account sensitive operations </t>
+  </si>
+  <si>
+    <t>Request to set paper statements on or off</t>
+  </si>
+  <si>
+    <t>Request to order new check</t>
+  </si>
+  <si>
+    <t>Request to order new withdrawal check</t>
+  </si>
+  <si>
+    <t>Loan payment</t>
+  </si>
+  <si>
+    <t>Request for bill payment – iPay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask XI in OLB created user – active account sensitive operations </t>
+  </si>
+  <si>
+    <t>Loan in advance payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init mask XII with rights for user administration in OLB </t>
+  </si>
+  <si>
+    <t>View user</t>
+  </si>
+  <si>
+    <t>Request to create new user</t>
+  </si>
+  <si>
+    <t>Request to delete user</t>
+  </si>
+  <si>
+    <t>Request to edit user</t>
+  </si>
+  <si>
+    <t>Request to block/activate user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request to reset user password </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,6 +474,13 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -810,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -980,37 +1043,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1024,23 +1063,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,6 +1105,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,51 +1548,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="75"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="62">
         <v>42895</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1535,520 +1608,472 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="70"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="70"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="69"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="67"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="67"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="61"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="61"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="63"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="61"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="61"/>
+      <c r="I32" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2059,9 +2084,2963 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF20168-4505-2443-9F3A-9A3A97FB10B2}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="8.83203125" style="22"/>
+    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16">
+      <c r="A1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38">
+        <v>8</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>65</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>299</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>880</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>881</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="39">
+        <v>882</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="48">
+        <v>200</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="39">
+        <v>204</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="39">
+        <v>202</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>229</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="29">
+        <v>224</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="29">
+        <v>252</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="29"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="29">
+        <v>713</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="39"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="29">
+        <v>813</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" ht="16">
+      <c r="A23" s="58">
+        <v>222</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328601B7-64FB-AD49-BE0C-5C8363483EA3}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="27.1640625" style="21" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>299</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="32">
+      <c r="A6" s="39">
+        <v>880</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>881</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="32">
+      <c r="A8" s="39">
+        <v>882</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="29">
+        <v>600</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434115ED-7CE2-8B49-9A81-9B1CA9EE6712}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="14" customHeight="1">
+      <c r="A17" s="39">
+        <v>831</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>832</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39">
+        <v>833</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>313</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>316</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>318</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>317</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29">
+        <v>250</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29">
+        <v>371</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="29">
+        <v>372</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>373</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="54"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
+      <c r="A32" s="58">
+        <v>222</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="58">
+        <v>675</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="39">
+        <v>767</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586FF91-F696-4F48-A670-1CA5A3508C9B}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="14" customHeight="1">
+      <c r="A17" s="39">
+        <v>832</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>833</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>313</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>321</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>712</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>316</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>318</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="54"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="29">
+        <v>250</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29">
+        <v>371</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="29">
+        <v>372</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>373</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
+      <c r="A32" s="58">
+        <v>222</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="58">
+        <v>675</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="39">
+        <v>767</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69FF583-E37E-D546-BC9D-556E83A22E8D}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="40.33203125" style="21" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>972</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>69</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>79</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>78</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="39">
+        <v>74</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>63</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="29"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="29"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="39"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="29"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="58"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="58"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="39"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2069,7 +5048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -2099,81 +5078,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="77" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="V1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="W1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="X1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="77" t="s">
+      <c r="Y1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="77" t="s">
+      <c r="Z1" s="83" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -2201,12 +5180,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2266,16 +5245,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2284,6 +5253,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2294,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -2344,34 +5323,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3206,7 +6185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -3256,34 +6235,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4168,34 +7147,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4522,34 +7501,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4902,34 +7881,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5206,7 +8185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5256,34 +8235,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5556,7 +8535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -5606,34 +8585,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>

--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD35EA-322B-124C-B21C-FE4A103A6752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB851D-8786-E041-808A-20DC6B02EA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_Toc442359491" localSheetId="1">'Operation list'!#REF!</definedName>
     <definedName name="_Toc442359492" localSheetId="1">'Operation list'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="127">
   <si>
     <t>Author:</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>RightSubSetID</t>
-  </si>
-  <si>
-    <t>Request to edit contacts</t>
   </si>
   <si>
     <t>Notification rule</t>
@@ -1045,6 +1042,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1117,13 +1121,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,51 +1545,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="65">
         <v>42895</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1608,469 +1605,469 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="75"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="75"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="78"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="75"/>
+      <c r="I30" s="78"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="C32" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -2140,15 +2137,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF20168-4505-2443-9F3A-9A3A97FB10B2}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="20" customWidth="1"/>
     <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="8.83203125" style="22"/>
@@ -2160,7 +2157,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2171,7 +2168,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:12" ht="32">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
         <v>74</v>
       </c>
@@ -2188,34 +2185,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>75</v>
@@ -2259,15 +2256,15 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>77</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>78</v>
@@ -2337,71 +2334,71 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>81</v>
@@ -2409,9 +2406,7 @@
       <c r="C12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
         <v>70</v>
       </c>
@@ -2424,16 +2419,18 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>70</v>
       </c>
@@ -2442,12 +2439,12 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>83</v>
@@ -2469,22 +2466,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -2493,36 +2480,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -2531,12 +2518,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -2545,22 +2542,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -2569,75 +2556,61 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="29">
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="29">
         <v>813</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="1:12" ht="16">
-      <c r="A23" s="58">
+      <c r="B20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="58">
         <v>222</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="53"/>
+      <c r="B22" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2656,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328601B7-64FB-AD49-BE0C-5C8363483EA3}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -2671,8 +2644,8 @@
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>112</v>
+      <c r="B1" s="61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2684,34 +2657,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2742,7 +2715,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -2766,7 +2739,7 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -2792,7 +2765,7 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -2818,7 +2791,7 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -2858,7 +2831,7 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>70</v>
@@ -2884,7 +2857,7 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>70</v>
@@ -2922,7 +2895,7 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>70</v>
@@ -2977,8 +2950,8 @@
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>113</v>
+      <c r="B1" s="61" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2990,34 +2963,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3048,7 +3021,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>70</v>
@@ -3072,7 +3045,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>70</v>
@@ -3096,7 +3069,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>70</v>
@@ -3119,8 +3092,8 @@
       <c r="A8" s="39">
         <v>36</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>114</v>
+      <c r="B8" s="62" t="s">
+        <v>113</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -3144,7 +3117,7 @@
         <v>229</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>70</v>
@@ -3168,7 +3141,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -3206,7 +3179,7 @@
         <v>252</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -3244,7 +3217,7 @@
         <v>713</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -3282,7 +3255,7 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -3306,7 +3279,7 @@
         <v>831</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>70</v>
@@ -3330,7 +3303,7 @@
         <v>832</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -3354,7 +3327,7 @@
         <v>833</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>70</v>
@@ -3406,7 +3379,7 @@
         <v>313</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>70</v>
@@ -3430,7 +3403,7 @@
         <v>316</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>70</v>
@@ -3478,7 +3451,7 @@
         <v>317</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -3516,7 +3489,7 @@
         <v>250</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>70</v>
@@ -3540,7 +3513,7 @@
         <v>371</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -3564,7 +3537,7 @@
         <v>372</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -3588,7 +3561,7 @@
         <v>373</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -3626,7 +3599,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>70</v>
@@ -3644,7 +3617,7 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>70</v>
@@ -3662,7 +3635,7 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>70</v>
@@ -3696,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586FF91-F696-4F48-A670-1CA5A3508C9B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -3711,8 +3684,8 @@
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>119</v>
+      <c r="B1" s="61" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -3724,34 +3697,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +3755,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>70</v>
@@ -3806,7 +3779,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>70</v>
@@ -3830,7 +3803,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>70</v>
@@ -3853,8 +3826,8 @@
       <c r="A8" s="39">
         <v>36</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>114</v>
+      <c r="B8" s="62" t="s">
+        <v>113</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -3872,15 +3845,15 @@
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="29">
         <v>229</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>70</v>
@@ -3904,7 +3877,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -3942,7 +3915,7 @@
         <v>252</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -3980,7 +3953,7 @@
         <v>713</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -4018,7 +3991,7 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -4044,7 +4017,7 @@
         <v>832</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>70</v>
@@ -4070,7 +4043,7 @@
         <v>833</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -4124,7 +4097,7 @@
         <v>313</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>70</v>
@@ -4150,7 +4123,7 @@
         <v>321</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>70</v>
@@ -4176,7 +4149,7 @@
         <v>712</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>70</v>
@@ -4202,7 +4175,7 @@
         <v>316</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -4268,7 +4241,7 @@
         <v>250</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>70</v>
@@ -4292,7 +4265,7 @@
         <v>371</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -4318,7 +4291,7 @@
         <v>372</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -4344,7 +4317,7 @@
         <v>373</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -4384,7 +4357,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>70</v>
@@ -4402,7 +4375,7 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>70</v>
@@ -4422,7 +4395,7 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>70</v>
@@ -4458,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69FF583-E37E-D546-BC9D-556E83A22E8D}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4473,8 +4446,8 @@
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>121</v>
+      <c r="B1" s="61" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -4486,34 +4459,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4544,7 +4517,7 @@
         <v>972</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>70</v>
@@ -4566,7 +4539,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>70</v>
@@ -4590,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>70</v>
@@ -4614,7 +4587,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -4630,15 +4603,15 @@
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="39">
         <v>74</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>70</v>
@@ -4662,7 +4635,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -5078,81 +5051,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="83" t="s">
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="86" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -5180,12 +5153,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5237,7 +5210,7 @@
         <v>70</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>71</v>
@@ -5273,7 +5246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -5323,34 +5296,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5381,7 +5354,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -5405,7 +5378,7 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -5431,7 +5404,7 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -5457,7 +5430,7 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -5497,7 +5470,7 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>70</v>
@@ -5521,7 +5494,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>70</v>
@@ -5545,7 +5518,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -5569,7 +5542,7 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -5593,7 +5566,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -5631,7 +5604,7 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -5669,7 +5642,7 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -5707,7 +5680,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>70</v>
@@ -5733,7 +5706,7 @@
         <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>70</v>
@@ -5787,7 +5760,7 @@
         <v>313</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -5813,7 +5786,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -5879,7 +5852,7 @@
         <v>250</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -5903,7 +5876,7 @@
         <v>371</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -5929,7 +5902,7 @@
         <v>372</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -5955,7 +5928,7 @@
         <v>373</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -5995,7 +5968,7 @@
         <v>601</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>70</v>
@@ -6021,7 +5994,7 @@
         <v>600</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>70</v>
@@ -6063,7 +6036,7 @@
         <v>813</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>70</v>
@@ -6101,7 +6074,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>70</v>
@@ -6119,7 +6092,7 @@
         <v>675</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>70</v>
@@ -6139,7 +6112,7 @@
         <v>767</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -6185,7 +6158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -6207,7 +6180,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6235,34 +6208,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -6293,7 +6266,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -6317,7 +6290,7 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -6343,7 +6316,7 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -6369,7 +6342,7 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -6409,7 +6382,7 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>70</v>
@@ -6433,7 +6406,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>70</v>
@@ -6457,7 +6430,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -6481,7 +6454,7 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -6505,7 +6478,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -6543,7 +6516,7 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -6581,7 +6554,7 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -6619,7 +6592,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>70</v>
@@ -6645,7 +6618,7 @@
         <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>70</v>
@@ -6699,7 +6672,7 @@
         <v>313</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -6725,7 +6698,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -6791,7 +6764,7 @@
         <v>250</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -6815,7 +6788,7 @@
         <v>371</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -6841,7 +6814,7 @@
         <v>372</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -6867,7 +6840,7 @@
         <v>373</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -6907,7 +6880,7 @@
         <v>601</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>70</v>
@@ -6933,7 +6906,7 @@
         <v>600</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>70</v>
@@ -6975,7 +6948,7 @@
         <v>813</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>70</v>
@@ -7013,7 +6986,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>70</v>
@@ -7031,7 +7004,7 @@
         <v>675</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>70</v>
@@ -7051,7 +7024,7 @@
         <v>767</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -7095,10 +7068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7119,7 +7092,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7147,34 +7120,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7202,7 +7175,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>75</v>
@@ -7216,19 +7189,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -7242,7 +7213,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -7252,7 +7225,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>77</v>
@@ -7278,7 +7251,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>78</v>
@@ -7302,49 +7275,49 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>93</v>
@@ -7358,7 +7331,9 @@
       <c r="E11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
@@ -7368,40 +7343,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -7409,30 +7380,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7449,10 +7396,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7473,7 +7420,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7501,34 +7448,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7556,7 +7503,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>75</v>
@@ -7570,19 +7517,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -7596,7 +7541,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -7606,7 +7553,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>77</v>
@@ -7632,7 +7579,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>78</v>
@@ -7656,49 +7603,49 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>93</v>
@@ -7712,7 +7659,9 @@
       <c r="E11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
@@ -7722,40 +7671,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -7766,53 +7711,29 @@
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>814</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="C14" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7829,10 +7750,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7853,7 +7774,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7881,34 +7802,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7936,7 +7857,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>75</v>
@@ -7950,19 +7871,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -7976,7 +7895,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -7986,7 +7907,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>77</v>
@@ -8012,7 +7933,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>78</v>
@@ -8036,49 +7957,49 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>93</v>
@@ -8092,7 +8013,9 @@
       <c r="E11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
@@ -8102,40 +8025,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -8143,30 +8062,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8183,10 +8078,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8207,7 +8102,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8235,34 +8130,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8290,7 +8185,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>75</v>
@@ -8304,19 +8199,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -8330,7 +8223,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -8340,7 +8235,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>77</v>
@@ -8366,7 +8261,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>78</v>
@@ -8390,49 +8285,49 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>93</v>
@@ -8449,29 +8344,17 @@
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -8480,12 +8363,22 @@
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -8493,30 +8386,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8535,8 +8404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8557,7 +8426,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8585,34 +8454,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8643,7 +8512,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>70</v>
@@ -8667,7 +8536,7 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>70</v>
@@ -8693,7 +8562,7 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>70</v>
@@ -8719,7 +8588,7 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>70</v>
@@ -8759,7 +8628,7 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>70</v>
@@ -8783,7 +8652,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>70</v>
@@ -8807,7 +8676,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>70</v>
@@ -8831,7 +8700,7 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
@@ -8855,7 +8724,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>70</v>
@@ -8893,7 +8762,7 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -8931,7 +8800,7 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -8969,7 +8838,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>70</v>
@@ -9021,7 +8890,7 @@
         <v>313</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>70</v>
@@ -9083,7 +8952,7 @@
         <v>250</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>70</v>
@@ -9107,7 +8976,7 @@
         <v>371</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>70</v>
@@ -9131,7 +9000,7 @@
         <v>372</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -9155,7 +9024,7 @@
         <v>373</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -9193,7 +9062,7 @@
         <v>601</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>70</v>
@@ -9219,7 +9088,7 @@
         <v>600</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>70</v>
@@ -9257,7 +9126,7 @@
         <v>813</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>70</v>
@@ -9281,7 +9150,7 @@
         <v>814</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>70</v>

--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB851D-8786-E041-808A-20DC6B02EA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DF2EB-4925-9842-A3DF-FD90276D9048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Documents related to clients</t>
   </si>
   <si>
-    <t>Document disclaimer</t>
-  </si>
-  <si>
     <t>Init Mask II full rights</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
   </si>
   <si>
     <t>Init Mask IV no account sensitive operations with document disclaimer</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Init Mask V no account sensitive operations - without disclaimer</t>
@@ -1049,11 +1043,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,38 +1088,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1107,18 +1113,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,51 +1539,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="80">
         <v>42895</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1605,228 +1599,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="67"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1839,238 +1833,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="75"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="75"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="72"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="72" t="s">
+      <c r="H26" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="72"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="78"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="78"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="78"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="72"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
+      <c r="C32" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="72"/>
+      <c r="I32" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2081,54 +2123,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2157,7 +2151,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2185,34 +2179,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2599,7 +2593,7 @@
         <v>222</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>70</v>
@@ -2645,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2657,34 +2651,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2951,7 +2945,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2963,34 +2957,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3087,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -3255,7 +3249,7 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -3279,7 +3273,7 @@
         <v>831</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>70</v>
@@ -3327,7 +3321,7 @@
         <v>833</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>70</v>
@@ -3403,7 +3397,7 @@
         <v>316</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>70</v>
@@ -3451,7 +3445,7 @@
         <v>317</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -3599,7 +3593,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>70</v>
@@ -3617,7 +3611,7 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>70</v>
@@ -3635,7 +3629,7 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>70</v>
@@ -3685,7 +3679,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -3697,34 +3691,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -3991,7 +3985,7 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>70</v>
@@ -4043,7 +4037,7 @@
         <v>833</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>70</v>
@@ -4123,7 +4117,7 @@
         <v>321</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>70</v>
@@ -4149,7 +4143,7 @@
         <v>712</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>70</v>
@@ -4175,7 +4169,7 @@
         <v>316</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -4357,7 +4351,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>70</v>
@@ -4375,7 +4369,7 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>70</v>
@@ -4395,7 +4389,7 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>70</v>
@@ -4431,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69FF583-E37E-D546-BC9D-556E83A22E8D}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
@@ -4447,7 +4441,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -4459,34 +4453,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4517,7 +4511,7 @@
         <v>972</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>70</v>
@@ -4539,7 +4533,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>70</v>
@@ -4563,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>70</v>
@@ -4587,7 +4581,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>70</v>
@@ -4611,7 +4605,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>70</v>
@@ -4635,7 +4629,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>70</v>
@@ -5051,13 +5045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="87" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="84" t="s">
@@ -5069,63 +5063,63 @@
       <c r="F1" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="86" t="s">
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="86" t="s">
+      <c r="V1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="86" t="s">
+      <c r="W1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="86" t="s">
+      <c r="X1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="86" t="s">
+      <c r="Z1" s="81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="84"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -5153,12 +5147,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5210,7 +5204,7 @@
         <v>70</v>
       </c>
       <c r="Y3" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>71</v>
@@ -5218,6 +5212,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5226,16 +5230,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5296,34 +5290,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5706,7 +5700,7 @@
         <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>70</v>
@@ -5786,7 +5780,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -6074,7 +6068,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>70</v>
@@ -6092,7 +6086,7 @@
         <v>675</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>70</v>
@@ -6112,7 +6106,7 @@
         <v>767</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -6180,7 +6174,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6208,34 +6202,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -6618,7 +6612,7 @@
         <v>833</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>70</v>
@@ -6698,7 +6692,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -6986,7 +6980,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>70</v>
@@ -7004,7 +6998,7 @@
         <v>675</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>70</v>
@@ -7024,7 +7018,7 @@
         <v>767</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -7092,7 +7086,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7120,34 +7114,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7396,10 +7390,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7420,7 +7414,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7448,34 +7442,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7708,32 +7702,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>814</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7774,7 +7742,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7802,34 +7770,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8102,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8130,34 +8098,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8402,10 +8370,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8426,7 +8394,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8454,34 +8422,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -9145,43 +9113,19 @@
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
     </row>
-    <row r="35" spans="1:12" ht="16">
-      <c r="A35" s="29">
-        <v>814</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DF2EB-4925-9842-A3DF-FD90276D9048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27259C7A-642A-1D42-A2B9-6139A3962C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -864,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1044,37 +1044,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1088,23 +1064,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1113,6 +1104,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1539,51 +1542,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="66">
         <v>42895</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1599,520 +1602,472 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="74"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="73"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="72"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="65"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="65"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="65"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="67"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="65"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="65"/>
+      <c r="I32" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2123,6 +2078,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2134,7 +2137,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2179,34 +2182,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2651,34 +2654,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2957,34 +2960,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3691,34 +3694,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4453,34 +4456,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5045,81 +5048,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="81" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="X1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="Y1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="81" t="s">
+      <c r="Z1" s="87" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -5147,12 +5150,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5212,16 +5215,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5230,6 +5223,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5238,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5290,34 +5293,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>318</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>69</v>
+        <v>712</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -5825,65 +5828,67 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="54"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="29">
+        <v>316</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>371</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -5891,12 +5896,12 @@
       <c r="K29" s="36"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="29">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -5907,9 +5912,7 @@
       <c r="E30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -5919,10 +5922,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -5944,12 +5947,24 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="29">
+        <v>372</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -5957,80 +5972,78 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="29">
+        <v>373</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="54"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="A35" s="29">
         <v>601</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="1:12" ht="16">
-      <c r="A34" s="29">
-        <v>600</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>813</v>
+        <v>600</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>70</v>
@@ -6041,16 +6054,20 @@
       <c r="E36" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="29"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
@@ -6064,76 +6081,114 @@
       <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="58">
+      <c r="A38" s="29">
+        <v>813</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="58">
         <v>222</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="58">
+      <c r="C40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="58">
         <v>675</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="39">
+      <c r="C41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="39">
         <v>767</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="C42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6150,10 +6205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6202,34 +6257,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -6713,12 +6768,12 @@
       <c r="K25" s="35"/>
       <c r="L25" s="34"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>318</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>69</v>
+        <v>712</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -6737,65 +6792,67 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="54"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="A27" s="29">
+        <v>316</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="29">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>371</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -6805,10 +6862,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -6819,9 +6876,7 @@
       <c r="E30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -6829,12 +6884,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -6856,12 +6911,24 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="29">
+        <v>372</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -6869,80 +6936,78 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="16">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="29">
+        <v>373</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="54"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" ht="16">
+      <c r="A35" s="29">
         <v>601</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="1:12" ht="16">
-      <c r="A34" s="29">
-        <v>600</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>813</v>
+        <v>600</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>70</v>
@@ -6953,16 +7018,20 @@
       <c r="E36" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="29"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
@@ -6976,76 +7045,114 @@
       <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="58">
+      <c r="A38" s="29">
+        <v>813</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="58">
         <v>222</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B40" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="58">
+      <c r="C40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="58">
         <v>675</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B41" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="39">
+      <c r="C41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="39">
         <v>767</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="C42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7114,34 +7221,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7442,34 +7549,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7770,34 +7877,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8098,34 +8205,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8370,10 +8477,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8422,34 +8529,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8879,10 +8986,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>318</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>69</v>
+        <v>316</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -8902,35 +9009,35 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="54"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="29">
-        <v>250</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A25" s="29">
+        <v>318</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="54"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -8939,12 +9046,12 @@
       <c r="K26" s="36"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="29">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>70</v>
@@ -8965,10 +9072,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>70</v>
@@ -8989,10 +9096,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="56" t="s">
         <v>70</v>
@@ -9012,11 +9119,21 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="54"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="29">
+        <v>373</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -9025,38 +9142,26 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="29">
+    <row r="31" spans="1:12">
+      <c r="A31" s="54"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="29">
         <v>601</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="1:12" ht="16">
-      <c r="A32" s="29">
-        <v>600</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>70</v>
@@ -9070,17 +9175,29 @@
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="54"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
+    <row r="33" spans="1:12" ht="16">
+      <c r="A33" s="29">
+        <v>600</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
@@ -9089,22 +9206,12 @@
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
     </row>
-    <row r="34" spans="1:12" ht="16">
-      <c r="A34" s="29">
-        <v>813</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="34" spans="1:12">
+      <c r="A34" s="54"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
@@ -9113,19 +9220,43 @@
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+    <row r="35" spans="1:12" ht="16">
+      <c r="A35" s="29">
+        <v>813</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
+++ b/banks/neighbors/catalog/Neighbors_Bank_Operations_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/neighbors/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27259C7A-642A-1D42-A2B9-6139A3962C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343269FB-2D3A-3042-A9B7-1520AD57A0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1640" windowWidth="35160" windowHeight="16960" tabRatio="916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -1046,11 +1046,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1064,38 +1091,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1104,18 +1116,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,51 +1542,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="81">
         <v>42895</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1602,228 +1602,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1836,238 +1836,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="76"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="76"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="73"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="73"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="73"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="79"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="79"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="79"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="73" t="s">
+      <c r="H31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="73"/>
+      <c r="I32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2078,54 +2126,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2182,34 +2182,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2654,34 +2654,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -2960,34 +2960,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -3694,34 +3694,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -4456,34 +4456,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5048,13 +5048,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="88" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5066,63 +5066,63 @@
       <c r="F1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="87" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="82" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="24" t="s">
         <v>58</v>
       </c>
@@ -5150,12 +5150,12 @@
       <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5215,6 +5215,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5223,16 +5233,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5241,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5293,34 +5293,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -5674,10 +5674,10 @@
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="39">
-        <v>832</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>86</v>
+        <v>833</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>70</v>
@@ -5696,27 +5696,15 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="46"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1">
-      <c r="A21" s="39">
-        <v>833</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5738,26 +5726,38 @@
       <c r="K22" s="36"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>313</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>313</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>87</v>
+        <v>321</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>104</v>
+        <v>712</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>316</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>114</v>
+        <v>318</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>70</v>
@@ -5854,40 +5854,38 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29">
+        <v>250</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -5896,12 +5894,12 @@
       <c r="K29" s="36"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -5912,7 +5910,9 @@
       <c r="E30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>70</v>
@@ -5973,24 +5973,12 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="54"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -5998,26 +5986,38 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="29">
+        <v>601</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="16">
       <c r="A35" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>70</v>
@@ -6028,7 +6028,9 @@
       <c r="E35" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="57" t="s">
@@ -6038,40 +6040,36 @@
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="36" spans="1:12">
+      <c r="A36" s="54"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>813</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
@@ -6080,22 +6078,12 @@
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -6104,26 +6092,30 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="58">
+        <v>222</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="16">
       <c r="A40" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -6134,14 +6126,16 @@
       <c r="E40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>675</v>
+      <c r="A41" s="39">
+        <v>767</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>70</v>
@@ -6156,39 +6150,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
-        <v>767</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6205,10 +6179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6257,34 +6231,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -6638,10 +6612,10 @@
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="39">
-        <v>832</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>86</v>
+        <v>833</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>70</v>
@@ -6660,27 +6634,15 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="46"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1">
-      <c r="A21" s="39">
-        <v>833</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -6688,7 +6650,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
@@ -6703,25 +6665,37 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
+      <c r="A23" s="29">
+        <v>313</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>70</v>
@@ -6744,10 +6718,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>104</v>
+        <v>712</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>70</v>
@@ -6770,10 +6744,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -6792,14 +6766,14 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="29">
-        <v>316</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>114</v>
+        <v>318</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>70</v>
@@ -6820,38 +6794,36 @@
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="29">
+        <v>250</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -6862,10 +6834,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>70</v>
@@ -6876,7 +6848,9 @@
       <c r="E30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -6886,10 +6860,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>70</v>
@@ -6910,12 +6884,12 @@
       <c r="K31" s="36"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>70</v>
@@ -6936,25 +6910,13 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="33" spans="1:12">
+      <c r="A33" s="54"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -6962,26 +6924,38 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
+    <row r="34" spans="1:12" ht="16">
+      <c r="A34" s="29">
+        <v>601</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="16">
       <c r="A35" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>70</v>
@@ -6992,7 +6966,9 @@
       <c r="E35" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="57" t="s">
@@ -7002,40 +6978,36 @@
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="36" spans="1:12">
+      <c r="A36" s="54"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>813</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
@@ -7044,22 +7016,12 @@
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -7068,26 +7030,30 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="58">
+        <v>222</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="16">
       <c r="A40" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>70</v>
@@ -7098,14 +7064,16 @@
       <c r="E40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>675</v>
+      <c r="A41" s="39">
+        <v>767</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>70</v>
@@ -7120,39 +7088,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
-        <v>767</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7221,34 +7169,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7549,34 +7497,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -7877,34 +7825,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8205,34 +8153,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
@@ -8529,34 +8477,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
